--- a/public/Oct11Ind.xlsx
+++ b/public/Oct11Ind.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\MERN\fantasymanager\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BEB6D0-1E68-4948-A911-EF24588BC5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888A70A2-F2EA-4324-9E06-C1041B517D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="403">
   <si>
     <t>Title</t>
   </si>
@@ -1239,6 +1239,9 @@
   </si>
   <si>
     <t>Points</t>
+  </si>
+  <si>
+    <t>Details</t>
   </si>
 </sst>
 </file>
@@ -1618,12 +1621,12 @@
   <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1637,10 +1640,10 @@
         <v>401</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>NED - AR</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>PAK - WK</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>SL - WK</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1716,7 +1719,7 @@
         <v>NZ - AR</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>NZ - AR</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1754,7 +1757,7 @@
         <v>NZ - BOWL</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>NZ - WK</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>ENG - BAT</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>SL - WK</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1830,7 +1833,7 @@
         <v>BAN - AR</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1849,7 +1852,7 @@
         <v>PAK - BOWL</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>ENG - BAT</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>IND - BAT</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>IND - BAT</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>IND - BOWL</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>NED - AR</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>PAK - BOWL</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>BAN - BOWL</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>PAK - BAT</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>SA - BAT</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>IND - BAT</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>AFG - AR</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>SA - AR</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>SA - WK</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>BAN - AR</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>BAN - AR</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -2153,7 +2156,7 @@
         <v>BAN - WK</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>ENG - BOWL</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -2191,7 +2194,7 @@
         <v>PAK - BAT</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>ENG - WK</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>IND - BOWL</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>AFG - BAT</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>SL - AR</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>NED - BOWL</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>IND - AR</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -2324,7 +2327,7 @@
         <v>ENG - WK</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -2343,7 +2346,7 @@
         <v>SL - BOWL</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>SL - BAT</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>IND - AR</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>PAK - AR</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>NZ - WK</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>NED - BOWL</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>123</v>
       </c>
@@ -2457,7 +2460,7 @@
         <v>NZ - BAT</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>ENG - AR</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>PAK - BOWL</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>AUS - BOWL</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>134</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>PAK - AR</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>AFG - BOWL</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>BAN - BAT</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>AFG - WK</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>145</v>
       </c>
@@ -2609,7 +2612,7 @@
         <v>NED - WK</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>147</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>SA - AR</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>ENG - AR</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -2666,7 +2669,7 @@
         <v>ENG - BOWL</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>156</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>NZ - AR</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>159</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>BAN - WK</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>162</v>
       </c>
@@ -2723,7 +2726,7 @@
         <v>PAK - AR</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>164</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>BAN - BOWL</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>167</v>
       </c>
@@ -2761,7 +2764,7 @@
         <v>SL - BOWL</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>170</v>
       </c>
@@ -2780,7 +2783,7 @@
         <v>NZ - AR</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>173</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>NED - AR</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>NED - BOWL</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>SL - BAT</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>182</v>
       </c>
@@ -2856,7 +2859,7 @@
         <v>AFG - BAT</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>184</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>SA - WK</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>BAN - BAT</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>189</v>
       </c>
@@ -2913,7 +2916,7 @@
         <v>AUS - BOWL</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>192</v>
       </c>
@@ -2932,7 +2935,7 @@
         <v>IND - WK</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>SA - BOWL</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>197</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>SA - BOWL</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>198</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>ENG - BAT</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>200</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>ENG - AR</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>203</v>
       </c>
@@ -3027,7 +3030,7 @@
         <v>AUS - BAT</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>206</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>NED - AR</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>208</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>SA - BOWL</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -3084,7 +3087,7 @@
         <v>ENG - BOWL</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>212</v>
       </c>
@@ -3103,7 +3106,7 @@
         <v>SL - AR</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>215</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>AFG - AR</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>218</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>SL - BOWL</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>221</v>
       </c>
@@ -3160,7 +3163,7 @@
         <v>IND - BAT</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>224</v>
       </c>
@@ -3179,7 +3182,7 @@
         <v>SL - BOWL</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>227</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>SA - BAT</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>229</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>AFG - BOWL</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>232</v>
       </c>
@@ -3236,7 +3239,7 @@
         <v>PAK - BAT</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>235</v>
       </c>
@@ -3255,7 +3258,7 @@
         <v>IND - BOWL</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>238</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>AFG - BOWL</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>241</v>
       </c>
@@ -3293,7 +3296,7 @@
         <v>AFG - AR</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>244</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>BAN - BOWL</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>247</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>AUS - BAT</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>249</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>NED - BAT</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>252</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>AUS - BAT</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>255</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>NZ - BOWL</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>257</v>
       </c>
@@ -3407,7 +3410,7 @@
         <v>PAK - BAT</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>260</v>
       </c>
@@ -3426,7 +3429,7 @@
         <v>IND - AR</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>263</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>NED - AR</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>266</v>
       </c>
@@ -3464,7 +3467,7 @@
         <v>IND - BOWL</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>269</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>SA - BOWL</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>272</v>
       </c>
@@ -3502,7 +3505,7 @@
         <v>NED - BAT</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>275</v>
       </c>
@@ -3521,7 +3524,7 @@
         <v>NED - AR</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>278</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>BAN - BAT</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>280</v>
       </c>
@@ -3559,7 +3562,7 @@
         <v>SL - BOWL</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>283</v>
       </c>
@@ -3578,7 +3581,7 @@
         <v>AFG - BAT</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>286</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>AUS - AR</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>289</v>
       </c>
@@ -3616,7 +3619,7 @@
         <v>AUS - BOWL</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>291</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>PAK - BAT</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>293</v>
       </c>
@@ -3654,7 +3657,7 @@
         <v>SL - WK</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>296</v>
       </c>
@@ -3673,7 +3676,7 @@
         <v>AUS - AR</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>299</v>
       </c>
@@ -3692,7 +3695,7 @@
         <v>AFG - BOWL</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>301</v>
       </c>
@@ -3711,7 +3714,7 @@
         <v>ENG - AR</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>304</v>
       </c>
@@ -3730,7 +3733,7 @@
         <v>NED - BOWL</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>306</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>SA - BAT</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>309</v>
       </c>
@@ -3768,7 +3771,7 @@
         <v>NZ - BAT</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>312</v>
       </c>
@@ -3787,7 +3790,7 @@
         <v>NZ - BOWL</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>315</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>AUS - BOWL</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>318</v>
       </c>
@@ -3825,7 +3828,7 @@
         <v>AUS - AR</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>321</v>
       </c>
@@ -3844,7 +3847,7 @@
         <v>NZ - AR</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>324</v>
       </c>
@@ -3863,7 +3866,7 @@
         <v>BAN - AR</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>327</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>AUS - WK</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>329</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>NZ - BAT</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>332</v>
       </c>
@@ -3920,7 +3923,7 @@
         <v>SA - BAT</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>334</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>NZ - BOWL</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>336</v>
       </c>
@@ -3958,7 +3961,7 @@
         <v>AUS - AR</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>338</v>
       </c>
@@ -3977,7 +3980,7 @@
         <v>BAN - WK</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>340</v>
       </c>
@@ -3996,7 +3999,7 @@
         <v>SL - BAT</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>342</v>
       </c>
@@ -4015,7 +4018,7 @@
         <v>IND - BAT</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>344</v>
       </c>
@@ -4034,7 +4037,7 @@
         <v>IND - BOWL</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>346</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>ENG - AR</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>348</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>NED - WK</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>350</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>ENG - BAT</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>352</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>ENG - AR</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>353</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>SA - BOWL</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>355</v>
       </c>
@@ -4148,7 +4151,7 @@
         <v>AUS - BOWL</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>357</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>SA - BOWL</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>358</v>
       </c>
@@ -4186,7 +4189,7 @@
         <v>BAN - BOWL</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>360</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>AUS - BAT</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>362</v>
       </c>
@@ -4224,7 +4227,7 @@
         <v>IND - AR</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>364</v>
       </c>
@@ -4243,7 +4246,7 @@
         <v>SL - BOWL</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>366</v>
       </c>
@@ -4262,7 +4265,7 @@
         <v>PAK - BOWL</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>368</v>
       </c>
@@ -4281,7 +4284,7 @@
         <v>AUS - AR</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>369</v>
       </c>
@@ -4300,7 +4303,7 @@
         <v>SA - AR</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>371</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>PAK - AR</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>373</v>
       </c>
@@ -4338,7 +4341,7 @@
         <v>NZ - BOWL</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>374</v>
       </c>
@@ -4357,7 +4360,7 @@
         <v>SL - AR</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>376</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>SL - BAT</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>377</v>
       </c>
@@ -4395,7 +4398,7 @@
         <v>AUS - WK</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>379</v>
       </c>
@@ -4414,7 +4417,7 @@
         <v>AFG - WK</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>381</v>
       </c>
@@ -4433,7 +4436,7 @@
         <v>BAN - AR</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>383</v>
       </c>
@@ -4452,7 +4455,7 @@
         <v>IND - BAT</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>384</v>
       </c>
@@ -4471,7 +4474,7 @@
         <v>BAN - BOWL</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>385</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>SL - BOWL</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>386</v>
       </c>
@@ -4509,7 +4512,7 @@
         <v>ENG - BOWL</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>388</v>
       </c>
@@ -4528,7 +4531,7 @@
         <v>AFG - BOWL</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>390</v>
       </c>
@@ -4547,7 +4550,7 @@
         <v>BAN - BAT</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>392</v>
       </c>
@@ -4566,7 +4569,7 @@
         <v>BAN - BAT</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>393</v>
       </c>
@@ -4585,7 +4588,7 @@
         <v>BAN - BOWL</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>394</v>
       </c>
@@ -4604,7 +4607,7 @@
         <v>AFG - BOWL</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>395</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>PAK - BOWL</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>396</v>
       </c>
@@ -4642,7 +4645,7 @@
         <v>SL - BOWL</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>397</v>
       </c>
@@ -4661,7 +4664,7 @@
         <v>AFG - BAT</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>399</v>
       </c>
